--- a/data_year/zb/固定资产投资和房地产/按行业分固定资产投资(不含农户)增长情况（2018-）.xlsx
+++ b/data_year/zb/固定资产投资和房地产/按行业分固定资产投资(不含农户)增长情况（2018-）.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DK4"/>
+  <dimension ref="A1:DK6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1362,7 +1362,7 @@
         <v>17.98</v>
       </c>
       <c r="C3" t="n">
-        <v>9.736000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D3" t="n">
         <v>79.78</v>
@@ -1371,19 +1371,19 @@
         <v>16.66</v>
       </c>
       <c r="F3" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G3" t="n">
         <v>78.92</v>
       </c>
       <c r="H3" t="n">
-        <v>50.481</v>
+        <v>50.5</v>
       </c>
       <c r="I3" t="n">
         <v>2.17</v>
       </c>
       <c r="J3" t="n">
-        <v>-1.19</v>
+        <v>-1.2</v>
       </c>
       <c r="K3" t="n">
         <v>4.1</v>
@@ -1395,13 +1395,13 @@
         <v>8.6</v>
       </c>
       <c r="N3" t="n">
-        <v>-15.58</v>
+        <v>-15.6</v>
       </c>
       <c r="O3" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="P3" t="n">
-        <v>2.856</v>
+        <v>2.9</v>
       </c>
       <c r="Q3" t="n">
         <v>-38.1</v>
@@ -1413,37 +1413,37 @@
         <v>23.68</v>
       </c>
       <c r="T3" t="n">
-        <v>1.358</v>
+        <v>1.4</v>
       </c>
       <c r="U3" t="n">
-        <v>0.667</v>
+        <v>0.7</v>
       </c>
       <c r="V3" t="n">
-        <v>1.551</v>
+        <v>1.6</v>
       </c>
       <c r="W3" t="n">
-        <v>-8.67</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>3.07744464978055</v>
+        <v>3.1</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.169</v>
+        <v>4.2</v>
       </c>
       <c r="Z3" t="n">
-        <v>-14.081</v>
+        <v>-14.1</v>
       </c>
       <c r="AA3" t="n">
-        <v>8.381</v>
+        <v>8.4</v>
       </c>
       <c r="AB3" t="n">
-        <v>5.32</v>
+        <v>5.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>6.84</v>
+        <v>6.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>4.555</v>
+        <v>4.6</v>
       </c>
       <c r="AE3" t="n">
         <v>15.7</v>
@@ -1468,10 +1468,10 @@
         <v>31.71</v>
       </c>
       <c r="AM3" t="n">
-        <v>-0.746</v>
+        <v>-0.7</v>
       </c>
       <c r="AN3" t="n">
-        <v>-9.09</v>
+        <v>-9.1</v>
       </c>
       <c r="AO3" t="n">
         <v>-3.08</v>
@@ -1480,10 +1480,10 @@
         <v>-13.26</v>
       </c>
       <c r="AQ3" t="n">
-        <v>21.876</v>
+        <v>21.9</v>
       </c>
       <c r="AR3" t="n">
-        <v>-83.792</v>
+        <v>-19.8</v>
       </c>
       <c r="AS3" t="n">
         <v>-75.21299999999999</v>
@@ -1504,28 +1504,28 @@
         <v>-12.77</v>
       </c>
       <c r="AY3" t="n">
-        <v>-15.93</v>
+        <v>-15.9</v>
       </c>
       <c r="AZ3" t="n">
-        <v>17.67</v>
+        <v>17.7</v>
       </c>
       <c r="BA3" t="n">
-        <v>13.88</v>
+        <v>13.9</v>
       </c>
       <c r="BB3" t="n">
         <v>-1.4</v>
       </c>
       <c r="BC3" t="n">
-        <v>-2.381</v>
+        <v>-2.4</v>
       </c>
       <c r="BD3" t="n">
         <v>-29.15</v>
       </c>
       <c r="BE3" t="n">
-        <v>1.178</v>
+        <v>1.2</v>
       </c>
       <c r="BF3" t="n">
-        <v>6.821</v>
+        <v>6.8</v>
       </c>
       <c r="BG3" t="n">
         <v>-6</v>
@@ -1534,64 +1534,64 @@
         <v>10.48</v>
       </c>
       <c r="BI3" t="n">
-        <v>-1.708</v>
+        <v>-1.7</v>
       </c>
       <c r="BJ3" t="n">
-        <v>1.046</v>
+        <v>1</v>
       </c>
       <c r="BK3" t="n">
-        <v>-22.53</v>
+        <v>-22.5</v>
       </c>
       <c r="BL3" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="BM3" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="BN3" t="n">
-        <v>16.875</v>
+        <v>16.9</v>
       </c>
       <c r="BO3" t="n">
-        <v>-1.452</v>
+        <v>-1.5</v>
       </c>
       <c r="BP3" t="n">
-        <v>15.675</v>
+        <v>15.7</v>
       </c>
       <c r="BQ3" t="n">
-        <v>-0.177</v>
+        <v>-0.2</v>
       </c>
       <c r="BR3" t="n">
-        <v>29.618</v>
+        <v>29.6</v>
       </c>
       <c r="BS3" t="n">
-        <v>18.145</v>
+        <v>18.1</v>
       </c>
       <c r="BT3" t="n">
-        <v>37.23</v>
+        <v>37.2</v>
       </c>
       <c r="BU3" t="n">
-        <v>17.84</v>
+        <v>17.8</v>
       </c>
       <c r="BV3" t="n">
-        <v>4.524</v>
+        <v>4.5</v>
       </c>
       <c r="BW3" t="n">
-        <v>-0.175</v>
+        <v>-0.2</v>
       </c>
       <c r="BX3" t="n">
         <v>-7.5</v>
       </c>
       <c r="BY3" t="n">
-        <v>-3.595</v>
+        <v>-3.6</v>
       </c>
       <c r="BZ3" t="n">
-        <v>-2.586</v>
+        <v>-2.6</v>
       </c>
       <c r="CA3" t="n">
-        <v>12.392</v>
+        <v>12.4</v>
       </c>
       <c r="CB3" t="n">
-        <v>25.731</v>
+        <v>25.7</v>
       </c>
       <c r="CC3" t="n">
         <v>29.13</v>
@@ -1603,7 +1603,7 @@
         <v>-0.24</v>
       </c>
       <c r="CF3" t="n">
-        <v>17.85</v>
+        <v>17.9</v>
       </c>
       <c r="CG3" t="n">
         <v>9.119999999999999</v>
@@ -1612,22 +1612,22 @@
         <v>16.6</v>
       </c>
       <c r="CI3" t="n">
-        <v>15.75</v>
+        <v>15.8</v>
       </c>
       <c r="CJ3" t="n">
-        <v>-3.42</v>
+        <v>-3.4</v>
       </c>
       <c r="CK3" t="n">
-        <v>-8.859999999999999</v>
+        <v>-8.9</v>
       </c>
       <c r="CL3" t="n">
-        <v>1.751</v>
+        <v>1.8</v>
       </c>
       <c r="CM3" t="n">
         <v>-20.56</v>
       </c>
       <c r="CN3" t="n">
-        <v>-17.75</v>
+        <v>-17.8</v>
       </c>
       <c r="CO3" t="n">
         <v>-7.66</v>
@@ -1645,58 +1645,58 @@
         <v>-8.18</v>
       </c>
       <c r="CT3" t="n">
-        <v>2.157</v>
+        <v>2.2</v>
       </c>
       <c r="CU3" t="n">
-        <v>-11.399</v>
+        <v>-11.4</v>
       </c>
       <c r="CV3" t="n">
-        <v>8.98</v>
+        <v>9</v>
       </c>
       <c r="CW3" t="n">
         <v>18.91</v>
       </c>
       <c r="CX3" t="n">
-        <v>6.278</v>
+        <v>6.3</v>
       </c>
       <c r="CY3" t="n">
-        <v>24.094</v>
+        <v>24.1</v>
       </c>
       <c r="CZ3" t="n">
-        <v>38.135</v>
+        <v>38.1</v>
       </c>
       <c r="DA3" t="n">
-        <v>-3.919</v>
+        <v>-3.9</v>
       </c>
       <c r="DB3" t="n">
-        <v>10.38</v>
+        <v>10.4</v>
       </c>
       <c r="DC3" t="n">
-        <v>-2.456</v>
+        <v>-2.5</v>
       </c>
       <c r="DD3" t="n">
-        <v>-3.33</v>
+        <v>-0.1</v>
       </c>
       <c r="DE3" t="n">
         <v>-18.44</v>
       </c>
       <c r="DF3" t="n">
-        <v>6.848</v>
+        <v>6.8</v>
       </c>
       <c r="DG3" t="n">
-        <v>30.943</v>
+        <v>30.9</v>
       </c>
       <c r="DH3" t="n">
-        <v>-3.67</v>
+        <v>-3.7</v>
       </c>
       <c r="DI3" t="n">
         <v>-14.93</v>
       </c>
       <c r="DJ3" t="n">
-        <v>25.968</v>
+        <v>26</v>
       </c>
       <c r="DK3" t="n">
-        <v>2.536</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="4">
@@ -2044,6 +2044,622 @@
       </c>
       <c r="DK4" t="n">
         <v>-10.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-21.4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>44.6</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G5" t="n">
+        <v>81.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>12</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-9.300000000000001</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-12.3</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-12.1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-38.2</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-12.3</v>
+      </c>
+      <c r="R5" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="S5" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="T5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="U5" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="V5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W5" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="X5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>-40.8</v>
+      </c>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="n">
+        <v>-23.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>-7.7</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>-16.9</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-10.3</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>-11.1</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>-27.1</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>-6.2</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>-5.9</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>-3.3</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>-2.2</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>-2.6</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>-7</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>2</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>8</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>-28.2</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>-3.1</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>-17.6</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>-26.5</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>-15</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="DA5" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="DB5" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="DC5" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="DD5" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>-5.7</v>
+      </c>
+      <c r="DF5" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="DG5" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="DH5" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="DI5" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="DJ5" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="DK5" t="n">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="N6" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-36.9</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="U6" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="W6" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="inlineStr"/>
+      <c r="AV6" t="n">
+        <v>-8.4</v>
+      </c>
+      <c r="AW6" t="inlineStr"/>
+      <c r="AX6" t="inlineStr"/>
+      <c r="AY6" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="BD6" t="inlineStr"/>
+      <c r="BE6" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="BH6" t="inlineStr"/>
+      <c r="BI6" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>-15</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>6</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>-22.7</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>-10.7</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="CC6" t="inlineStr"/>
+      <c r="CD6" t="inlineStr"/>
+      <c r="CE6" t="inlineStr"/>
+      <c r="CF6" t="n">
+        <v>21</v>
+      </c>
+      <c r="CG6" t="inlineStr"/>
+      <c r="CH6" t="inlineStr"/>
+      <c r="CI6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="CM6" t="inlineStr"/>
+      <c r="CN6" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="CO6" t="inlineStr"/>
+      <c r="CP6" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="CQ6" t="inlineStr"/>
+      <c r="CR6" t="inlineStr"/>
+      <c r="CS6" t="inlineStr"/>
+      <c r="CT6" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="CW6" t="inlineStr"/>
+      <c r="CX6" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="CY6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="CZ6" t="n">
+        <v>-22.4</v>
+      </c>
+      <c r="DA6" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="DB6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="DC6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="DD6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="DE6" t="inlineStr"/>
+      <c r="DF6" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="DG6" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="DH6" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="DI6" t="inlineStr"/>
+      <c r="DJ6" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="DK6" t="n">
+        <v>33.3</v>
       </c>
     </row>
   </sheetData>
